--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,186 +43,168 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>ripped</t>
+    <t>disappointing</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>water</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>instead</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>di</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>product</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>buy</t>
   </si>
   <si>
     <t>even</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>made</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
+    <t>toy</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -232,24 +214,24 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -268,46 +250,58 @@
     <t>friends</t>
   </si>
   <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>play</t>
   </si>
   <si>
     <t>year</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -668,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -676,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -758,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -787,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8620689655172413</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -805,19 +799,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -829,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -837,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8148148148148148</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -855,19 +849,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -879,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -887,13 +881,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7887323943661971</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -905,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.8279569892473119</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L6">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -929,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -937,13 +931,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7727272727272727</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -955,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -979,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -987,13 +981,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.6875</v>
       </c>
       <c r="C8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1005,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.6981132075471698</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1029,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1037,13 +1031,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.6407766990291263</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1055,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.6086956521739131</v>
+        <v>0.5761494252873564</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>401</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1076,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1087,13 +1081,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6935483870967742</v>
+        <v>0.6351351351351351</v>
       </c>
       <c r="C10">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D10">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1105,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.5810616929698709</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L10">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1129,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>292</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1137,13 +1131,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6554054054054054</v>
+        <v>0.625</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.5311203319502075</v>
+        <v>0.5394190871369294</v>
       </c>
       <c r="L11">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M11">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1179,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1187,13 +1181,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6407766990291263</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C12">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1205,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.4795081967213115</v>
+        <v>0.4675963904840033</v>
       </c>
       <c r="L12">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="M12">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1226,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>635</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1237,13 +1231,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1255,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.382262996941896</v>
+        <v>0.3577981651376147</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1281,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5966386554621849</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1305,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1329,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1337,13 +1331,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1355,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.3554216867469879</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L15">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1379,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1387,13 +1381,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5818181818181818</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1405,19 +1399,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.3544973544973545</v>
+        <v>0.3227513227513227</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M16">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1429,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1437,13 +1431,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5476190476190477</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1455,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.2587412587412588</v>
+        <v>0.3046875</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1487,13 +1481,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5217391304347826</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C18">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1505,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>0.232</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1537,13 +1531,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.515625</v>
+        <v>0.4360189573459716</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K19">
-        <v>0.2311827956989247</v>
+        <v>0.2208835341365462</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1579,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1587,13 +1581,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4631578947368421</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1605,19 +1599,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.2168674698795181</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L20">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>195</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1637,13 +1631,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.462962962962963</v>
+        <v>0.4315789473684211</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.216</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1679,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1687,13 +1681,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4489795918367347</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1705,19 +1699,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>0.1904761904761905</v>
+        <v>0.1980718667835232</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1729,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>102</v>
+        <v>915</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1737,38 +1731,38 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4444444444444444</v>
+        <v>0.40625</v>
       </c>
       <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>38</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K23">
+        <v>0.1958041958041958</v>
+      </c>
+      <c r="L23">
         <v>28</v>
       </c>
-      <c r="D23">
+      <c r="M23">
         <v>28</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>35</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K23">
-        <v>0.1700262927256792</v>
-      </c>
-      <c r="L23">
-        <v>194</v>
-      </c>
-      <c r="M23">
-        <v>194</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
@@ -1779,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>947</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1787,13 +1781,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4251968503937008</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C24">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1805,31 +1799,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K24">
-        <v>0.1027308192457737</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L24">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="M24">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1380</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1837,49 +1831,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4140625</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K25">
-        <v>0.1016042780748663</v>
+        <v>0.1116883116883117</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>172</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>336</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1887,13 +1881,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4096385542168675</v>
+        <v>0.3671875</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1905,19 +1899,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>0.09192200557103064</v>
+        <v>0.1086350974930362</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1929,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1937,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D27">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1955,19 +1949,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K27">
-        <v>0.08949416342412451</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1979,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>234</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1987,13 +1981,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3968253968253968</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,19 +1999,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>0.07586206896551724</v>
+        <v>0.07931034482758621</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2029,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2037,7 +2031,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.396551724137931</v>
+        <v>0.2527472527472527</v>
       </c>
       <c r="C29">
         <v>23</v>
@@ -2055,31 +2049,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K29">
-        <v>0.0534045393858478</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L29">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M29">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N29">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>709</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2087,13 +2081,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3932584269662922</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2105,31 +2099,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K30">
-        <v>0.05030181086519115</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M30">
         <v>28</v>
       </c>
       <c r="N30">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="O30">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>472</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2137,13 +2131,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3880597014925373</v>
+        <v>0.2355072463768116</v>
       </c>
       <c r="C31">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2155,7 +2149,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>41</v>
+        <v>211</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K31">
+        <v>0.04806408544726302</v>
+      </c>
+      <c r="L31">
+        <v>36</v>
+      </c>
+      <c r="M31">
+        <v>39</v>
+      </c>
+      <c r="N31">
+        <v>0.92</v>
+      </c>
+      <c r="O31">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>713</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2163,13 +2181,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3791469194312796</v>
+        <v>0.23</v>
       </c>
       <c r="C32">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="D32">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2181,47 +2199,95 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32">
+        <v>0.04627766599597585</v>
+      </c>
+      <c r="L32">
+        <v>23</v>
+      </c>
+      <c r="M32">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <v>0.88</v>
+      </c>
+      <c r="O32">
+        <v>0.12</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3666666666666666</v>
+        <v>0.2288135593220339</v>
       </c>
       <c r="C33">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>91</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="L33">
         <v>22</v>
       </c>
-      <c r="D33">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>0.85</v>
+      </c>
+      <c r="O33">
+        <v>0.15</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3163265306122449</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2233,21 +2299,45 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K34">
+        <v>0.03428571428571429</v>
+      </c>
+      <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <v>0.83</v>
+      </c>
+      <c r="O34">
+        <v>0.17</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.301980198019802</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="C35">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2259,47 +2349,47 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2564102564102564</v>
+        <v>0.1936416184971098</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2474226804123711</v>
+        <v>0.178343949044586</v>
       </c>
       <c r="C37">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D37">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2311,21 +2401,21 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2222222222222222</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2337,21 +2427,21 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.211864406779661</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2363,21 +2453,21 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2056962025316456</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2389,47 +2479,47 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2014388489208633</v>
+        <v>0.1708766716196137</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D41">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="E41">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1962025316455696</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C42">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2441,21 +2531,21 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.195</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C43">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2467,21 +2557,21 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1920289855072464</v>
+        <v>0.1541850220264317</v>
       </c>
       <c r="C44">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D44">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2493,21 +2583,21 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.191588785046729</v>
+        <v>0.1330645161290323</v>
       </c>
       <c r="C45">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D45">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2519,85 +2609,85 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1901931649331352</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C46">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="E46">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="F46">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1786743515850144</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C47">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1592356687898089</v>
+        <v>0.1146067415730337</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>132</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2605,25 +2695,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1518324607329843</v>
+        <v>0.1129476584022039</v>
       </c>
       <c r="C49">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>162</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2631,25 +2721,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.139917695473251</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C50">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D50">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E50">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>209</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2657,25 +2747,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1343612334801762</v>
+        <v>0.08960573476702509</v>
       </c>
       <c r="C51">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>393</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2683,25 +2773,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1314285714285714</v>
+        <v>0.08253968253968254</v>
       </c>
       <c r="C52">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>152</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2709,25 +2799,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1178082191780822</v>
+        <v>0.06754530477759473</v>
       </c>
       <c r="C53">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D53">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>322</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2735,25 +2825,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1090225563909774</v>
+        <v>0.06605222734254992</v>
       </c>
       <c r="C54">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E54">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F54">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>237</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2761,19 +2851,19 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1053811659192825</v>
+        <v>0.0589622641509434</v>
       </c>
       <c r="C55">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="D55">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E55">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="F55">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
@@ -2787,25 +2877,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.08960573476702509</v>
+        <v>0.05761843790012804</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="E56">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="F56">
-        <v>0.96</v>
+        <v>0.78</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>254</v>
+        <v>736</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2813,181 +2903,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.0821529745042493</v>
+        <v>0.05152224824355972</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D57">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E57">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F57">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.07920792079207921</v>
-      </c>
-      <c r="C58">
-        <v>48</v>
-      </c>
-      <c r="D58">
-        <v>50</v>
-      </c>
-      <c r="E58">
-        <v>0.04</v>
-      </c>
-      <c r="F58">
-        <v>0.96</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.0761904761904762</v>
-      </c>
-      <c r="C59">
-        <v>24</v>
-      </c>
-      <c r="D59">
-        <v>26</v>
-      </c>
-      <c r="E59">
-        <v>0.08</v>
-      </c>
-      <c r="F59">
-        <v>0.92</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.07476635514018691</v>
-      </c>
-      <c r="C60">
-        <v>32</v>
-      </c>
-      <c r="D60">
-        <v>38</v>
-      </c>
-      <c r="E60">
-        <v>0.16</v>
-      </c>
-      <c r="F60">
-        <v>0.84</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.0611764705882353</v>
-      </c>
-      <c r="C61">
-        <v>26</v>
-      </c>
-      <c r="D61">
-        <v>30</v>
-      </c>
-      <c r="E61">
-        <v>0.13</v>
-      </c>
-      <c r="F61">
-        <v>0.87</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.05828220858895705</v>
-      </c>
-      <c r="C62">
-        <v>38</v>
-      </c>
-      <c r="D62">
-        <v>41</v>
-      </c>
-      <c r="E62">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F62">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.05076142131979695</v>
-      </c>
-      <c r="C63">
-        <v>40</v>
-      </c>
-      <c r="D63">
-        <v>46</v>
-      </c>
-      <c r="E63">
-        <v>0.13</v>
-      </c>
-      <c r="F63">
-        <v>0.87</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>748</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
